--- a/public/data/halife_products.xlsx
+++ b/public/data/halife_products.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AJ26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,17 +643,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Xử lý hoàn toàn các vi khuẩn gây bệnh đặc hiệu như Salmonella spp., Escherichia coli và C.perfringens trên gia súc, gia cầm. Cải thiện sức khỏe đường ruột, sản sinh vi khuẩn có lợi, hấp thu thức ăn triệt để, cải thiện FCR.</t>
+          <t>Xử lý hoàn toàn các vi khuẩn gây bệnh đặc hiệu như Salmonella spp., Escherichia coli và C.perfringens trên gia súc, gia cầm. Cải thiện sức khỏe đường ruột, sản sinh vi khuẩn có lợi, hấp thu thức ăn triệt để, cải thiện FCR. Sử dụng ở tất cả các giai đoạn của vật nuôi.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Xử lý hoàn toàn các vi khuẩn gây bệnh đặc hiệu;Cải thiện sức khỏe đường ruột;Sản sinh vi khuẩn có lợi;Hấp thu thức ăn triệt để;Cải thiện FCR;Sử dụng ở tất cả các giai đoạn của vật nuôi</t>
+          <t>Sản sinh vi khuẩn có lợi;Điều trị viêm ruột;tiêu chảy E.coli;Duy trì tiêu hóa khỏe mạnh</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Trộn đều vào thức ăn hoặc nước uống theo liều lượng khuyến cáo</t>
+          <t>Trộn đều vào thức ăn hoặc nước uống theo liều lượng hướng dẫn</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -667,47 +667,47 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>bộ</t>
+          <t>Lọ</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>500ml/hộp 2 lọ</t>
+          <t>500ml</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Gia súc, gia cầm</t>
+          <t>Gia súc, Gia cầm</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Vi sinh vật có lợi, khoáng chất thiết yếu</t>
+          <t>Vi sinh vật có lợi, khoáng chất</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Theo hướng dẫn trên bao bì sản phẩm</t>
+          <t>2-3ml/1 lít nước hoặc 1kg thức ăn</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>7 ngày</t>
+          <t>0 ngày</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Nơi khô ráo, thoáng mát, tránh ánh sáng trực tiếp, nhiệt độ dưới 25°C</t>
+          <t>Nơi khô ráo, thoáng mát, tránh ánh sáng</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>24 tháng kể từ ngày sản xuất</t>
+          <t>24 tháng</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>HALIFE Việt Nhật</t>
+          <t>Halife</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>VN-TCCS-001-2025</t>
+          <t>VN-2024-BPHAGE</t>
         </is>
       </c>
       <c r="W2" t="b">
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AA2" t="n">
         <v>4.8</v>
@@ -740,27 +740,27 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>/images/product-535ed55c-1752505975.png</t>
+          <t>/images/product-af2d0fd8-1752511729.png</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>/images/product-2a919194-1752504471.png</t>
+          <t>/images/product-best-phage-1.png;/images/product-best-phage-2.png</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>vi sinh vật,khoáng chất,gia súc,gia cầm,tiêu hóa,best phage</t>
+          <t>best phage,vi sinh vật,khoáng chất,gia súc,gia cầm,tiêu hóa,E.coli,Salmonella,FCR</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>best phage,vi sinh vật có lợi,khoáng chất gia súc,halife</t>
+          <t>best phage,vi sinh vật có lợi,khoáng chất gia súc</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>BEST PHAGE - Bộ sản phẩm thức ăn bổ sung vi sinh vật có lợi và khoáng chất cho gia súc gia cầm từ HALIFE</t>
+          <t>BEST PHAGE - Thức ăn bổ sung giúp cải thiện đường ruột, kháng khuẩn, tăng miễn dịch</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -800,17 +800,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Thảo dược tự nhiên xử lý tiêu chảy, E.coli, phân xanh, phân vàng, phân trắng</t>
+          <t>Thảo dược tự nhiên hỗ trợ tiêu hóa và miễn dịch cho gia súc, gia cầm</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tăng lực, kích thích ăn uống trả lại khả năng tiêu hóa, chống cốc, chống stress. Hỗ trợ điều trị vô sinh, tăng khả năng sinh sản, tăng sản lượng trứng, phòng bệnh bại liệt, co giật.</t>
+          <t>Thảo dược tự nhiên xử lý tiêu chảy, E.coli, phân xanh, phân vàng, phân trắng; tăng lực, kích thích tăng trưởng, tăng khả năng tiêu hóa, chống còi cọc, stress. Hỗ trợ điều trị vô sinh, tăng sản lượng trứng, phòng bệnh bại liệt, co giật,...</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tăng lực, kích thích ăn uống;Chống cốc, chống stress;Hỗ trợ điều trị vô sinh;Tăng khả năng sinh sản;Tăng sản lượng trứng;Phòng bệnh bại liệt, co giật;Kích thích thèm ăn, tiêu hóa tốt</t>
+          <t>Xử lý tiêu chảy;Kích thích ăn uống;Tăng miễn dịch;Tăng trưởng và sinh sản</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -822,54 +822,54 @@
         <v>95000</v>
       </c>
       <c r="J3" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="K3" t="n">
-        <v>21</v>
+        <v>13.64</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>chai</t>
+          <t>Lọ</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>500ml</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Gia súc, gia cầm</t>
+          <t>Gia súc, Gia cầm</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Thảo dược tự nhiên, chiết xuất thực vật</t>
+          <t>Thảo dược thiên nhiên</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1ml/2 lít nước (gia cầm), 1ml/1 lít nước (gia súc)</t>
+          <t>1ml/2 lít nước đối với gia cầm, 1ml/1 lít nước hoặc 500gr thức ăn đối với gia súc</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>3 ngày</t>
+          <t>0 ngày</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Nơi khô ráo, thoáng mát, tránh ánh sáng trực tiếp</t>
+          <t>Nơi khô ráo, thoáng mát, tránh ánh sáng</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>24 tháng kể từ ngày sản xuất</t>
+          <t>24 tháng</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>HALIFE Việt Nhật</t>
+          <t>Halife</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>VN-TCCS-002-2025</t>
+          <t>VN-2024-BOOSTPHAGE</t>
         </is>
       </c>
       <c r="W3" t="b">
@@ -892,47 +892,47 @@
         <v>1</v>
       </c>
       <c r="Z3" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>/images/boost-phage-1.jpg</t>
+          <t>/images/product-461807d2-1752511758.png</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>/images/boost-phage-1.jpg;/images/boost-phage-2.jpg</t>
+          <t>/images/boost-phage.png;/images/gallery-boost-phage.png</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>thảo dược,tiêu chảy,e.coli,miễn dịch,boost phage</t>
+          <t>boost phage,thảo dược,tiêu chảy,e.coli,miễn dịch</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>boost phage,thảo dược tự nhiên,chống tiêu chảy,halife</t>
+          <t>boost phage,thảo dược tự nhiên,chống tiêu chảy,miễn dịch</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>BOOST PHAGE - Thảo dược tự nhiên điều trị tiêu chảy và tăng cường miễn dịch cho gia súc gia cầm</t>
+          <t>BOOST PHAGE - Thảo dược tự nhiên hỗ trợ tiêu hóa, tăng trưởng và miễn dịch</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>2024-01-20</t>
+          <t>2024-01-01</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -947,91 +947,91 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GOOD SET</t>
+          <t>ADEKOL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Bộ sản phẩm</t>
+          <t>Thuốc kháng sinh</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cử ly tối ưu</t>
+          <t>Diệt khuẩn, virus</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cử ly tối ưu hô hấp, viêm phổi</t>
+          <t>Sát trùng thế hệ mới, diệt khuẩn mạnh, diệt sạch virus, vi khuẩn gây bệnh</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Phòng và trị bệnh viêm đường hô hấp phức hợp. Phòng và trị bệnh viêm phổi, xuyến, tụ huyết trùng, viêm teo xoang mũi. Phòng các bệnh bội nhiễm và kê phát.</t>
+          <t>Tiêu diệt virus ASF, PRRS, H5N1, H7N9 gây bệnh heo châu Phi, cúm gia cầm, lở mồm long móng,... Diệt sạch vi khuẩn E.coli, Salmonella, Clostridium và nấm mốc gây bệnh đường ruột, hô hấp. Xử lý nước uống, ngăn nguồn nhiễm khuẩn từ nước.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phòng và trị bệnh viêm đường hô hấp phức hợp;Phòng và trị bệnh viêm phổi, xuyến, tụ huyết trùng;Viêm teo xoang mũi;Phòng các bệnh bội nhiễm và kê phát</t>
+          <t>Diệt khuẩn;Diệt virus;Sát trùng chuồng trại;nước uống</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Theo hướng dẫn của bác sĩ thú y hoặc nhãn sản phẩm</t>
+          <t>Pha loãng theo tỉ lệ hướng dẫn trên nhãn sản phẩm</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>550000</v>
+        <v>150000</v>
       </c>
       <c r="J4" t="n">
-        <v>650000</v>
+        <v>150000</v>
       </c>
       <c r="K4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>bộ</t>
+          <t>Chai</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>250ml/hộp 2 lọ</t>
+          <t>1 lít</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Heo, gia súc</t>
+          <t>Chuồng trại, nước</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Hoạt chất kháng sinh, chống viêm</t>
+          <t>Hợp chất sát trùng</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Theo chỉ định bác sĩ thú y</t>
+          <t>Pha loãng theo tỉ lệ hướng dẫn trên nhãn sản phẩm</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>14 ngày</t>
+          <t>0 ngày</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Nơi khô ráo, thoáng mát, nhiệt độ dưới 25°C</t>
+          <t>Nơi khô ráo, thoáng mát, tránh ánh sáng</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>24 tháng kể từ ngày sản xuất</t>
+          <t>24 tháng</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>HALIFE Việt Nhật</t>
+          <t>Halife</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1041,60 +1041,60 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>VN-TCCS-003-2025</t>
+          <t>VN-2024-ADEKOL</t>
         </is>
       </c>
       <c r="W4" t="b">
         <v>1</v>
       </c>
       <c r="X4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="b">
         <v>1</v>
       </c>
       <c r="Z4" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="AA4" t="n">
         <v>4.7</v>
       </c>
       <c r="AB4" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>/images/good-set-1.jpg</t>
+          <t>/images/product-3dc4520b-1752512992.png</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>/images/good-set-1.jpg;/images/good-set-2.jpg</t>
+          <t>/images/adekol.png;/images/gallery-adekol.png</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>hô hấp,viêm phổi,kháng sinh,good set</t>
+          <t>adekol,sát trùng,diệt khuẩn,virus,chuồng trại,nước uống</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>good set,viêm phổi,hô hấp,halife</t>
+          <t>adekol,sát trùng chăn nuôi,diệt khuẩn heo cúm gia cầm</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>GOOD SET - Bộ sản phẩm cử ly tối ưu điều trị viêm đường hô hấp và viêm phổi cho gia súc</t>
+          <t>ADEKOL - Sát trùng thế hệ mới, diệt sạch virus và vi khuẩn gây bệnh</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-01-01</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1109,91 +1109,91 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WINFLO LA</t>
+          <t>CANXI VITA D3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Thuốc kháng sinh</t>
+          <t>Thức ăn bổ sung</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Điều trị nhiễm khuẩn</t>
+          <t>Khoáng chất &amp; Vitamin</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Kháng sinh điều trị viêm phổi, nhiễm khuẩn đường ruột, E.coli, lepto</t>
+          <t>Bổ sung Canxi và Vitamin D3, tăng tỷ lệ đẻ vỏ dày, lông bóng</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bao trị nhiễm khuẩn đường ruột, phổ thường hạn, E.coli, lepto, viêm phổi hóa mủ, viêm phổi định sướn, hô suyển, tụ huyết trùng, hồng ký, viêm ruột cấp.</t>
+          <t>Cung cấp Canxi hữu cơ và Vitamin D3 giúp hấp thụ tốt hơn. Tăng sản lượng trứng, kéo dài thời gian khai thác, vỏ bóng, đều và chắc. Hỗ trợ phục hồi xương, tăng miễn dịch và sức đề kháng cho vật nuôi.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bao trị nhiễm khuẩn đường ruột;Phổ thường hạn, E.coli, lepto;Viêm phổi hóa mủ, định sướn;Hô suyển, tụ huyết trùng;Viêm ruột cấp, viêm vú, viêm tử cung</t>
+          <t>Bổ sung Canxi;Tăng chất lượng trứng;Phục hồi xương và miễn dịch</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1ml/20-35kg thể trọng cho heo. 1ml/45-50kg thể trọng cho trâu bò. 1ml/20kg thể trọng cho gia cầm</t>
+          <t>Trộn 1ml/lít nước hoặc 1ml/1kg thức ăn dùng hàng ngày</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>280000</v>
+        <v>145000</v>
       </c>
       <c r="J5" t="n">
-        <v>320000</v>
+        <v>145000</v>
       </c>
       <c r="K5" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>lọ</t>
+          <t>Chai</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>1 lít</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Heo, trâu bò, gia cầm</t>
+          <t>Gia cầm</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Florfenicol, excipients</t>
+          <t>Canxi hữu cơ, Vitamin D3</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1ml/20-35kg (heo), 1ml/45-50kg (trâu bò), 1ml/20kg (gia cầm)</t>
+          <t>1ml/lít nước hoặc 1ml/1kg thức ăn</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>14-21 ngày</t>
+          <t>0 ngày</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Nơi khô ráo, thoáng mát, tránh ánh sáng</t>
+          <t>Nơi khô ráo, thoáng mát</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>24 tháng kể từ ngày sản xuất</t>
+          <t>24 tháng</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>HALIFE Việt Nhật</t>
+          <t>Halife</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1203,60 +1203,60 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>VN-TCCS-004-2025</t>
+          <t>VN-2024-CANXID3</t>
         </is>
       </c>
       <c r="W5" t="b">
         <v>0</v>
       </c>
       <c r="X5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="b">
         <v>1</v>
       </c>
       <c r="Z5" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AA5" t="n">
         <v>4.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>/images/winflo-la-1.jpg</t>
+          <t>/images/product-dd6698d5-1752511840.png</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>/images/winflo-la-1.jpg;/images/winflo-la-2.jpg</t>
+          <t>/images/canxi-vita-d3.png;/images/gallery-canxi-vita-d3.png</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>kháng sinh,florfenicol,nhiễm khuẩn,winflo la</t>
+          <t>canxi,trứng đẹp,lông bóng,vỏ trứng chắc,vitamin D3</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>winflo la,kháng sinh,florfenicol,halife</t>
+          <t>canxi vita D3,canxi hữu cơ,vitamin D3,trứng dày,vỏ bóng</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>WINFLO LA - Thuốc kháng sinh điều trị nhiễm khuẩn đường ruột và hô hấp cho gia súc gia cầm</t>
+          <t>CANXI VITA D3 - Bổ sung canxi hữu cơ và vitamin giúp trứng dày, bóng, tăng miễn dịch</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2024-01-15</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1271,91 +1271,91 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ANPHA NEW</t>
+          <t>GLUCO KC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Thuốc kháng sinh</t>
+          <t>Thức ăn bổ sung</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Điều trị nhiễm khuẩn</t>
+          <t>Thải độc, hồi sức</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Kháng sinh điều trị nhiễm khuẩn hô hấp, tiêu hóa, sinh dục</t>
+          <t>Cầm máu, giải độc, thanh nhiệt, giảm stress, tăng đề kháng</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Đặc trị viêm phổi, viêm màng phổi, viêm phổi hóa mủ, phổi định sướn, hô suyển, lepto, tụ huyết trùng trên gia súc, điều trị nhiễm trùng do vi khuẩn nhạy cảm.</t>
+          <t>Hỗ trợ đông máu trong tổn thương, stress, viêm gan, viêm túi mật. Đào thải độc tố, giảm mệt mỏi, tăng đề kháng, cải thiện dinh dưỡng, tăng trọng</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Đặc trị viêm phổi, viêm màng phổi;Viêm phổi hóa mủ, định sướn;Hô suyển, lepto, tụ huyết trùng;Điều trị nhiễm trùng do vi khuẩn;CRD ghép E.coli</t>
+          <t>Hỗ trợ cầm máu;Giải độc gan;Tăng miễn dịch</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Nếu bệnh nặng ngay tiêm 1 lần với liều: 1ml/15-20kg thể trọng</t>
+          <t>1g/1–2 lít nước uống hoặc 1g/1kg thức ăn dùng 3–5 ngày</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>190000</v>
+        <v>99000</v>
       </c>
       <c r="J6" t="n">
-        <v>220000</v>
+        <v>99000</v>
       </c>
       <c r="K6" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>lọ</t>
+          <t>Gói</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Gia súc, gia cầm</t>
+          <t>Gia súc, Gia cầm</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Enrofloxacin, excipients</t>
+          <t>Gluco-K, vitamin C</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1ml/15-20kg thể trọng</t>
+          <t>1g/1–2 lít nước hoặc 1g/1kg thức ăn</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>14 ngày</t>
+          <t>0 ngày</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Nơi khô ráo, thoáng mát, tránh ánh sáng</t>
+          <t>Tránh ánh nắng trực tiếp</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>24 tháng kể từ ngày sản xuất</t>
+          <t>24 tháng</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>HALIFE Việt Nhật</t>
+          <t>Halife</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1365,63 +1365,3303 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>VN-TCCS-005-2025</t>
+          <t>VN-2024-GLUCOKC</t>
         </is>
       </c>
       <c r="W6" t="b">
         <v>0</v>
       </c>
       <c r="X6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="b">
         <v>1</v>
       </c>
       <c r="Z6" t="n">
-        <v>95</v>
+        <v>350</v>
       </c>
       <c r="AA6" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AB6" t="n">
         <v>25</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>/images/anpha-new-1.jpg</t>
+          <t>/images/product-076e4305-1752511875.png</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>/images/anpha-new-1.jpg</t>
+          <t>/images/gluco-kc.png;/images/gallery-gluco-kc.png</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
+          <t>gluco kc,cầm máu,giải độc,tăng trọng,tăng đề kháng</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>gluco kc,giải độc,cầm máu,tăng miễn dịch</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>GLUCO KC - Tăng cường đề kháng, giải độc và hồi phục sức khỏe cho vật nuôi</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ADE TRỨNG</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Thức ăn bổ sung</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tăng năng suất trứng</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Tăng trọng lượng, vỏ dày, màu đẹp, chống stress</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tăng năng suất trứng, màu đỏ lòng đậm, vỏ dày đều. Ngừa sảy thai, tăng miễn dịch, giảm rụng lông, tăng tiêu hóa. Giúp gà đẻ lâu dài và ổn định</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Tăng sản lượng trứng;Cải thiện vỏ và lòng trứng;Chống stress</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1g/1–2 lít nước hoặc 1g/1kg thức ăn trong suốt giai đoạn đẻ</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>175000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>175000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Gói</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1kg</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Gia cầm</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Vitamin A, D3, E, khoáng</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1g/1–2 lít nước hoặc 1g/1kg thức ăn</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0 ngày</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Để nơi khô mát, tránh ánh sáng</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>24 tháng</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Halife</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>VN-2024-ADETRUNG</t>
+        </is>
+      </c>
+      <c r="W7" t="b">
+        <v>1</v>
+      </c>
+      <c r="X7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>/images/product-9b0f33c6-1752511898.png</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>/images/ade-trung.png;/images/gallery-ade-trung.png</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>ade trứng,trứng đẹp,tăng đẻ,vỏ trứng đều,phòng sảy thai</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>ade trứng,tăng trứng,tăng năng suất,ngừa sảy thai</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>ADE TRỨNG - Tăng năng suất và chất lượng trứng, giảm stress, hỗ trợ sinh sản</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>2024-01-20</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BROM-HEN</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Thuốc kháng sinh</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Điều trị hô hấp</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Giảm ho, long đờm, chống co thắt phế quản</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Trị bệnh phế quản phổi cấp và mãn tính liên quan đến chất nhầy trên bê, lợn, gà, chó, mèo. Giảm ho, giảm đờm, chống co thắt trong các bệnh viêm phế quản và thanh phế quản truyền nhiễm.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Giảm ho;Long đờm;Giảm co thắt phế quản</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Trộn 1g/1-2 lít nước hoặc 1g/1kg thức ăn, dùng 3-5 ngày tùy mức độ bệnh</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>150000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>150000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Gói</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1kg</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Gia súc, Gia cầm, Chó, Mèo</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Bromhexin, thảo dược</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>1g/1-2 lít nước hoặc 1g/1kg thức ăn</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0 ngày</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Tránh ẩm, kín gió</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>24 tháng</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Halife</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>VN-2024-BROMHEN</t>
+        </is>
+      </c>
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>280</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>/images/product-28f2b635-1752511921.png</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>/images/brom-hen.png;/images/gallery-brom-hen.png</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>brom-hen,giảm ho,long đờm,phế quản,hô hấp</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>brom-hen,trị ho,trị đờm,vật nuôi viêm phế quản</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>BROM-HEN - Hỗ trợ điều trị ho, đờm và viêm phế quản hiệu quả</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ENDIA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Bộ sản phẩm</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Điều trị tiêu chảy</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Tiêm duy nhất, đặc trị tiêu chảy do nhiễm khuẩn</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Đặc trị nhiễm khuẩn nặng, ức chế enzym gyrase, diệt vi khuẩn. Hiệu quả với bệnh kế phát như viêm phổi, tụ huyết trùng, viêm tử cung.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Điều trị nhiễm khuẩn nặng;Tiêu chảy cấp;Phòng kế phát sau tiêu chảy</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Tiêm 1ml/10–15kg thể trọng, tiêm duy nhất 1 lần hoặc theo hướng dẫn bác sĩ thú y</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>280000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>280000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Lọ tiêm</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>100ml</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Gia súc</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Kháng sinh nhóm fluoroquinolone</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1ml/10–15kg thể trọng</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>5 ngày</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Nơi thoáng mát, tránh ánh nắng</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>24 tháng</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Halife</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>VN-2024-ENDIA</t>
+        </is>
+      </c>
+      <c r="W9" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>33</v>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>/images/product-ef9509be-1752511939.png</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>/images/endia.png;/images/gallery-endia.png</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>endia,tiêu chảy,thuốc tiêm,viêm tử cung,nhiễm khuẩn</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>endia,đặc trị tiêu chảy,thuốc tiêm nhiễm khuẩn,heo</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>ENDIA - Khắc tinh tiêu chảy, hiệu quả cao với 1 mũi tiêm duy nhất</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PIG PHAGE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Thức ăn bổ sung</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Phage trị tiêu chảy</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Khắc tinh tiêu chảy cho heo con</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Xử lý vi khuẩn đặc hiệu gây tiêu chảy, bảo vệ sức khỏe đường ruột cho heo. Ngăn ngừa tái phát, tăng hấp thu, giảm chết sơ sinh.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Trị tiêu chảy;Tăng sức đề kháng ruột;Ngăn tái phát</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Xịt trực tiếp 1–2ml vào miệng heo 1–2 lần/ngày trong 3–5 ngày hoặc theo hướng dẫn</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>160000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>160000</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Lọ xịt</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>100ml</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Heo con</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Phage đặc hiệu E.coli</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>1–2ml/ngày</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0 ngày</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Nơi khô ráo</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>24 tháng</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Halife</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>VN-2024-PIGPHAGE</t>
+        </is>
+      </c>
+      <c r="W10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>180</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>/images/product-b56a2133-1752511961.png</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>/images/pig-phage.png;/images/gallery-pig-phage.png</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>pig phage,tiêu chảy heo con,xịt trị tiêu chảy,đường ruột khỏe</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>pig phage,phage tiêu chảy,heo con,kháng khuẩn đặc hiệu</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>PIG PHAGE - Phage xịt điều trị tiêu chảy đặc hiệu cho heo con</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BV - BIOTIN</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Thức ăn bổ sung</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tăng trưởng &amp; chất lượng trứng</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Tăng trọng, mọc lông, chống cắn mổ, chống còi</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kích thích mọc lông, chống cắn mổ. Tăng sản lượng thịt, duy trì tỉ lệ đẻ, vỏ trứng đỏ đều, đẹp, không biến dạng.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Mọc lông;Chống còi;Tăng chất lượng trứng</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1g/1–2 lít nước hoặc 1g/1kg thức ăn liên tục 5–7 ngày/lần</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>190000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>190000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Gói</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>1kg</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Gia cầm</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Biotin, vitamin nhóm B</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1g/1–2 lít nước hoặc 1g/1kg thức ăn</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0 ngày</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Khô mát, kín gió</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>24 tháng</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Halife</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>VN-2024-BVBIOTIN</t>
+        </is>
+      </c>
+      <c r="W11" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>250</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>/images/product-21d78fe9-1752511977.png</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>/images/bv-biotin.png;/images/gallery-bv-biotin.png</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>biotin,tăng trọng,mọc lông,vỏ trứng đỏ,chống mổ</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>bv biotin,tăng sản lượng,chống cắn mổ,tăng chất lượng trứng</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>BV-BIOTIN - Siêu tăng trọng, chống cắn mổ, tăng chất lượng trứng rõ rệt</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>2024-02-03</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>WINDOXCIN</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Bộ sản phẩm</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Điều trị hô hấp &amp; nhiễm khuẩn</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Điều trị viêm phổi, hen gà, CRD, tụ huyết trùng</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Điều trị các bệnh đường hô hấp như viêm phổi, tiêu chảy, viêm khớp, tử cung, tụ huyết trùng trên trâu, bò, lợn, gia cầm. Hiệu quả cao với bệnh mạn tính, CRD ghép E.coli.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Trị viêm phổi;Điều trị CRD;Hỗ trợ miễn dịch đường hô hấp</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1g/1–2 lít nước hoặc 1g/1kg thức ăn dùng trong 3–5 ngày</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>950000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>950000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Gói</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1kg</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Gia súc, Gia cầm</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Doxycycline, Enrofloxacin</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1g/1–2 lít nước hoặc 1g/1kg thức ăn</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>7 ngày</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Nơi khô, kín, tránh ánh sáng</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>24 tháng</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Halife</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>VN-2024-WINDOXCIN</t>
+        </is>
+      </c>
+      <c r="W12" t="b">
+        <v>1</v>
+      </c>
+      <c r="X12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>48</v>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>/images/product-e55af08f-1752512000.png</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>/images/windoxcin.png;/images/gallery-windoxcin.png</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>windoxcin,hô hấp,viêm phổi,CRD,E.coli,tụ huyết trùng</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>windoxcin,trị viêm phổi,crd,hen gà,viêm tử cung</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>WINDOXCIN - Đặc trị viêm phổi, tụ huyết trùng, CRD, hen gà, trên mọi loại vật nuôi</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>2024-02-04</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AN THAI BỔ NÁI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Thức ăn bổ sung</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Hỗ trợ sinh sản</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Tăng lượng sữa, dưỡng nái, ngừa sảy thai, thai khỏe, con sai</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Bổ sung Kẽm, Selen, Vitamin A-E bảo vệ niêm mạc tử cung, tăng đậu thai, giảm sảy thai, chết lưu. Cung cấp oxy, ngừa stress sinh sản. Con sinh ra khỏe mạnh, đồng đều.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Bổ sung khoáng &amp; vitamin sinh sản;Ngừa sảy thai;Dưỡng nái</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Trộn 10–20g/1kg thức ăn hoặc theo chỉ định bác sĩ thú y</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>220000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>220000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Gói</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1kg</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Heo nái</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Vitamin A, E, Selen, Kẽm</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>10–20g/1kg thức ăn</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0 ngày</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Khô mát, kín, tránh ẩm</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>24 tháng</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Halife</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>VN-2024-ANTHAI</t>
+        </is>
+      </c>
+      <c r="W13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>/images/product-2fd9ea2b-1752512031.png</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>/images/an-thai.png;/images/gallery-an-thai.png</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>an thai bổ nái,dưỡng nái,tăng sữa,tăng đậu thai,sinh sản</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>an thai bổ nái,dưỡng nái,ngừa sảy thai,vitamin sinh sản</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>AN THAI BỔ NÁI - Dưỡng nái, bổ sung khoáng chất và vitamin giúp mẹ khỏe, con sai, ngừa sảy thai</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ADE ĐẠM SỮA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Thức ăn bổ sung</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tăng trọng &amp; sức đề kháng</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Tăng trọng, tăng cơ, bung lông, giảm chi phí nuôi</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Bổ sung vitamin, acid amin, enzyme và protein giúp vật nuôi tăng trưởng nhanh, hạn chế dùng kháng sinh, phục hồi sau mất sữa, tăng đề kháng, tiêu hóa tốt, xuất chuồng sớm</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Tăng trọng;Tăng cơ;Hạn chế kháng sinh</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1g/1kg thức ăn, dùng trong các giai đoạn cần tăng trưởng nhanh hoặc sau cai sữa</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>280000</v>
+      </c>
+      <c r="J14" t="n">
+        <v>280000</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Gói</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1kg</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Gia súc, Gia cầm</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Vitamin A, D, E, protein sữa</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1g/1kg thức ăn</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0 ngày</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Để nơi thoáng mát</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>24 tháng</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Halife</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>VN-2024-ADESUA</t>
+        </is>
+      </c>
+      <c r="W14" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>300</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>/images/product-10aeb826-1752512040.png</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>/images/ade-dam-sua.png;/images/gallery-ade-dam-sua.png</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>đạm sữa,tăng trọng,tăng cơ,vật nuôi lớn nhanh</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>ade đạm sữa,tăng cân,tăng cơ,protein,không kháng sinh</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>ADE ĐẠM SỮA - Tăng trọng, đạm cao, tăng cơ nhanh, giảm tiêu tốn thức ăn</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>2024-02-06</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>OCTA-NEW</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Thức ăn bổ sung</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Viêm tử cung &amp; sinh dục</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Đặc trị viêm tử cung, viêm vú, mất sữa</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Trị viêm tử cung trước và sau sinh, viêm vú, mất sữa ở gia súc. Trị viêm phổi, CRD, CCRD, bệnh tiêu hóa.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Viêm tử cung;Mất sữa;Viêm phổi</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Tiêm 1ml/10-15kg thể trọng trong 3-5 ngày hoặc theo chỉ định</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>320000</v>
+      </c>
+      <c r="J15" t="n">
+        <v>320000</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Lọ tiêm</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>100ml</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Gia súc</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Oxytetracycline, multivitamin</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>1ml/10-15kg thể trọng</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>7 ngày</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Nơi mát, tránh ánh nắng</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>24 tháng</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Halife</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>VN-2024-OCTANEW</t>
+        </is>
+      </c>
+      <c r="W15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>/images/product-b3e69e7d-1752512608.png</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>/images/octa-new.png;/images/gallery-octa-new.png</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>octa-new,viêm tử cung,mất sữa,sinh dục,crd</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>octa-new,đặc trị viêm tử cung,sản khoa,mất sữa</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>OCTA-NEW - Thuốc tiêm trị viêm tử cung, mất sữa và viêm hô hấp</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>2024-02-07</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>AMOXGENX</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Thức ăn bổ sung</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Nhiễm khuẩn tiêu hóa &amp; hô hấp</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Trị nhiễm trùng tiêu hóa, hô hấp và nhiễm khuẩn nội tạng</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Trị nhiễm trùng đường tiêu hóa, hô hấp, nhiễm nội tạng, viêm vú, tử cung và áp xe da trên trâu, bò, lợn.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Trị viêm ruột;Viêm tử cung;Áp xe</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Tiêm 1ml/10-15kg thể trọng, ngày 1-2 lần theo hướng dẫn bác sĩ thú y</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>300000</v>
+      </c>
+      <c r="J16" t="n">
+        <v>300000</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Lọ tiêm</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>100ml</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Gia súc</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Amoxicillin, Gentamycin</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>1ml/10-15kg thể trọng</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>7 ngày</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Tránh ánh nắng trực tiếp</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>24 tháng</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Halife</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>VN-2024-AMOXGENX</t>
+        </is>
+      </c>
+      <c r="W16" t="b">
+        <v>1</v>
+      </c>
+      <c r="X16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>170</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>/images/product-fa6c9e77-1752512649.png</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>/images/amoxgenx.png;/images/gallery-amoxgenx.png</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>amoxgenx,nhiễm trùng,viêm tử cung,áp xe,viêm hô hấp</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>amoxgenx,điều trị nhiễm khuẩn tiêu hóa,viêm tử cung,trâu bò lợn</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>AMOXGENX - Thuốc tiêm trị nhiễm khuẩn nội tạng, viêm tử cung, tiêu hóa, hô hấp</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>2024-02-08</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>WINTOSAL</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Thức ăn bổ sung</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Hồi sức &amp; trao đổi chất</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Tăng trao đổi chất, hồi sức, chống suy nhược</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Giúp gia súc non phát triển, tăng sinh sản, giảm suy nhược, thiếu máu, tăng chuyển hóa.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Hồi sức;Tăng trao đổi chất;Chống suy nhược</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Tiêm 1ml/10kg thể trọng trong 3 ngày liên tiếp hoặc theo hướng dẫn</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>250000</v>
+      </c>
+      <c r="J17" t="n">
+        <v>250000</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Lọ tiêm</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>100ml</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Gia súc</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Vitamin B-complex, Glucose, Electrolytes</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>1ml/10kg thể trọng</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0 ngày</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Nơi mát, kín nắp</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>24 tháng</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Halife</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>VN-2024-WINTOSAL</t>
+        </is>
+      </c>
+      <c r="W17" t="b">
+        <v>0</v>
+      </c>
+      <c r="X17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>180</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>/images/product-00cbdb55-1752512709.png</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>/images/wintosal.png;/images/gallery-wintosal.png</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>wintosal,hồi sức,tăng trao đổi chất,giảm suy nhược,sinh sản</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>wintosal,tăng trao đổi chất,chống stress,thúc đẻ</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>WINTOSAL - Bổ trợ chuyển hóa, sinh sản, hồi sức nhanh chóng</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>2024-02-09</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GOOD SET</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Bộ sản phẩm</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Cử lý tối ưu</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Cử lý tối ưu hô hấp, viêm phổi</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Phòng và trị bệnh viêm đường hô hấp phức hợp. Phòng và trị bệnh viêm phổi, hen, tụ huyết trùng, viêm teo xoang mũi. Phòng các bệnh bội nhiễm và kế phát (heo tai xanh, lở mồm long móng).</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Phòng và trị viêm đường hô hấp;Phòng bệnh kế phát;Tối ưu phổi và miễn dịch</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Theo hướng dẫn của bác sĩ thú y hoặc nhãn sản phẩm WINFLO LA và ANPHA NEW</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>550000</v>
+      </c>
+      <c r="J18" t="n">
+        <v>550000</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Combo</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2 chai</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Gia súc, Gia cầm</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>WINFLO LA, ANPHA NEW</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Dùng kết hợp 2 sản phẩm theo hướng dẫn</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>7 ngày</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Khô thoáng, tránh ánh nắng</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>24 tháng</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Halife</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>VN-2024-GOODSET</t>
+        </is>
+      </c>
+      <c r="W18" t="b">
+        <v>1</v>
+      </c>
+      <c r="X18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>/images/product-7aadbcb7-1752512755.png</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>/images/product-bad4093e-1752512778.png;/images/product-ce5b7ccf-1752512778.png;/images/product-955251ab-1752512778.png</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>good set,hô hấp,viêm phổi,heo tai xanh,lở mồm long móng</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>good set,viêm phổi,hô hấp,halife</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>GOOD SET - Bộ đôi xử lý tối ưu các bệnh viêm phổi, hô hấp, phòng bệnh kế phát</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>2024-01-18</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BEST PHAGE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Bộ sản phẩm</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Vi sinh vật &amp; Thảo dược</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Kháng sinh tự nhiên cho gia súc gia cầm</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Kết hợp BEST PHAGE và BOOST PHAGE giúp xử lý vi khuẩn gây bệnh (E.coli, Salmonella, Clostridium), cải thiện hệ tiêu hóa, miễn dịch và tăng trưởng.</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Tiêu diệt vi khuẩn;Cải thiện miễn dịch;Tăng hấp thu;Kháng sinh tự nhiên</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Kết hợp liều dùng theo từng lọ BEST PHAGE và BOOST PHAGE</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>489000</v>
+      </c>
+      <c r="J19" t="n">
+        <v>489000</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Combo</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2 lọ</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Gia súc, Gia cầm</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>BEST PHAGE, BOOST PHAGE</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Dùng kết hợp theo hướng dẫn</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>0 ngày</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Khô mát</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>24 tháng</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Halife</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>VN-2024-BESTCOMBO</t>
+        </is>
+      </c>
+      <c r="W19" t="b">
+        <v>0</v>
+      </c>
+      <c r="X19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>/images/product-e99cff39-1752512826.png</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>/images/product-6a68e21e-1752512824.png</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>best phage,boost phage,vi sinh vật,thảo dược,gia cầm,gia súc</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>best + phage,kháng sinh tự nhiên,vi sinh vật,thảo dược</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>BEST + PHAGE - Bộ sản phẩm thay thế kháng sinh, cải thiện đường ruột và miễn dịch</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>2024-01-19</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>WINFLO LA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Thuốc kháng sinh</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Điều trị nhiễm khuẩn</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Kháng sinh điều trị viêm phổi, nhiễm khuẩn đường hô hấp và tiêu hóa</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Đặc trị hen suyễn, viêm phổi, phổ thường hàn, E.coli, lepto, viêm phổi hóa mủ, viêm phổi dính sườn, tụ huyết trùng, hồng lỵ, sưng phù đầu, viêm ruột ỉa chảy, viêm vú, viêm tử cung, sốt bỏ ăn, bệnh kế phát tai xanh, phân xanh, phân trắng,...</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Điều trị nhiễm khuẩn đường hô hấp;Viêm phổi;Viêm ruột và bệnh kế phát</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1ml/20-35kg heo; 1ml/45-50kg trâu bò; 1ml/20kg gia cầm</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>280000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>280000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Lọ tiêm</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>100ml</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Gia súc, Gia cầm</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Florfenicol</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>1ml/20-50kg thể trọng</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>7 ngày</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Nơi khô, tránh ánh sáng</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>24 tháng</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Halife</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>VN-2024-WINFLOLA</t>
+        </is>
+      </c>
+      <c r="W20" t="b">
+        <v>0</v>
+      </c>
+      <c r="X20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>31</v>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>/images/product-2a31557d-1752512845.png</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>/images/winflo-la.png;/images/gallery-winflo-la.png</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>kháng sinh,florfenicol,nhiễm khuẩn,winflo la</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>winflo la,kháng sinh,florfenicol,halife</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>WINFLO LA - Kháng sinh điều trị hiệu quả viêm phổi, nhiễm khuẩn đường ruột, kế phát tai xanh</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>2024-02-10</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ANPHA NEW</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Thuốc kháng sinh</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Điều trị nhiễm khuẩn</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Kháng sinh điều trị nhiễm khuẩn hô hấp, tiêu hóa và sinh dục</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Trị nhiễm khuẩn đường hô hấp, tiêu hóa, sinh dục, nhiễm trùng da và các mô mềm trên trâu, bò, lợn, dê. Đặc trị viêm phổi, viêm màng phổi, viêm phổi hóa mủ, phổi dính sườn, ho, suyễn, lepto (bệnh nghề), phổ thường hàn, tụ huyết trùng trên gia súc, điều trị bội nhiễm trên bệnh tai xanh.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Điều trị viêm phổi;tụ huyết trùng;Nhiễm trùng sinh dục và tiêu hóa</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1ml/15-20kg thể trọng, ngày tiêm 1 lần</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>190000</v>
+      </c>
+      <c r="J21" t="n">
+        <v>190000</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Lọ tiêm</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>100ml</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Gia súc</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Enrofloxacin</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>1ml/15-20kg</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>7 ngày</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Tránh ánh sáng</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>24 tháng</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Halife</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>VN-2024-ANPHANEW</t>
+        </is>
+      </c>
+      <c r="W21" t="b">
+        <v>0</v>
+      </c>
+      <c r="X21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>145</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>/images/product-a0cc9ff6-1752512856.png</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>/images/anpha-new.png;/images/gallery-anpha-new.png</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
           <t>enrofloxacin,kháng sinh,viêm phổi,anpha new</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AF21" t="inlineStr">
         <is>
           <t>anpha new,enrofloxacin,kháng sinh,halife</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>ANPHA NEW - Thuốc kháng sinh chứa Enrofloxacin điều trị nhiễm khuẩn hô hấp và tiêu hóa</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>2024-02-10</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>2024-12-15</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>ANPHA NEW - Thuốc kháng sinh điều trị toàn diện nhiễm khuẩn hô hấp, tiêu hóa và sinh dục</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>2024-02-11</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SORBITOL</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Thức ăn bổ sung</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Giải độc &amp; bảo vệ gan</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Giải độc gan, hỗ trợ tiêu hóa, tăng cường chức năng gan</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Kích thích tiêu hóa, ăn ngon, đào thải độc tố trong gan, thận, tăng miễn dịch. Bảo vệ tế bào gan, phục hồi chức năng gan sau bệnh hoặc dùng thuốc dài ngày.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Giải độc gan;Kích thích ăn uống;Bảo vệ gan thận</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1g/1-2 lít nước hoặc 1g/1kg thức ăn, dùng liên tục 3-5 ngày</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>120000</v>
+      </c>
+      <c r="J22" t="n">
+        <v>120000</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Gói</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>1kg</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Gia súc, Gia cầm</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Sorbitol, vitamin nhóm B, acid amin</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>1g/1-2 lít nước hoặc 1g/1kg thức ăn</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>0 ngày</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Khô ráo, tránh ẩm</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>24 tháng</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Halife</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>VN-2024-SORBITOL</t>
+        </is>
+      </c>
+      <c r="W22" t="b">
+        <v>0</v>
+      </c>
+      <c r="X22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>140</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>/images/product-8ae8c194-1752512873.png</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>/images/sorbitol.png;/images/gallery-sorbitol.png</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>sorbitol,giải độc,gan,ăn ngon,halife</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>sorbitol,giải độc gan,hỗ trợ tiêu hóa,bổ gan</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>SORBITOL - Giải độc gan, tăng miễn dịch, kích thích ăn ngon</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>2024-01-18</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BOOST PHAGE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Thức ăn bổ sung</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Tăng miễn dịch</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Tăng miễn dịch, giảm bệnh đường ruột</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kết hợp chiết xuất thảo dược và chế phẩm sinh học giúp tăng miễn dịch, cân bằng hệ vi sinh vật có lợi, giảm tiêu chảy, tăng hấp thu dinh dưỡng.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Tăng miễn dịch;Giảm tiêu chảy;Cân bằng hệ tiêu hóa</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Xịt miệng hoặc pha nước uống 1-2ml/con/ngày, dùng liên tục 3-5 ngày</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>150000</v>
+      </c>
+      <c r="J23" t="n">
+        <v>150000</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Lọ</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>100ml</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Heo, Gia cầm</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Thảo dược, chế phẩm vi sinh</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>1-2ml/con/ngày</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>0 ngày</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Khô mát, tránh ánh nắng</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>24 tháng</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Halife</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>VN-2024-BOOSTPHAGE</t>
+        </is>
+      </c>
+      <c r="W23" t="b">
+        <v>0</v>
+      </c>
+      <c r="X23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>/images/product-e9d3e613-1752512905.png</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>/images/boost-phage.png;/images/gallery-boost-phage.png</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>boost phage,miễn dịch,tiêu chảy,vi sinh,thảo dược</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>boost phage,tăng miễn dịch,vi sinh,vật nuôi</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>BOOST PHAGE - Tăng miễn dịch, giảm tiêu chảy nhờ thảo dược và vi sinh vật có lợi</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>2024-01-18</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CANXI VITA D3</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Thức ăn bổ sung</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Khoáng &amp; Canxi</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Bổ sung canxi, vitamin D3 giúp xương chắc khỏe</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Tăng cường hệ xương, chống liệt chân, vẹo cổ, còi cọc, tăng hấp thu canxi và khoáng chất cần thiết cho vật nuôi phát triển.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Bổ sung canxi;Tăng hấp thu D3;Phòng còi xương</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1g/1kg thức ăn hoặc 1g/1-2 lít nước uống</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>95000</v>
+      </c>
+      <c r="J24" t="n">
+        <v>95000</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Gói</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>1kg</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Gia súc, Gia cầm</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Canxi, Vitamin D3, Photpho</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>1g/1kg thức ăn</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>0 ngày</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Khô ráo, thoáng mát</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>24 tháng</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Halife</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>VN-2024-CANXID3</t>
+        </is>
+      </c>
+      <c r="W24" t="b">
+        <v>0</v>
+      </c>
+      <c r="X24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>145</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>/images/product-e2ecd631-1752512941.png</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>/images/canxi-d3.png;/images/gallery-canxi-d3.png</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>canxi,tăng hấp thu,xương chắc khỏe,d3</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>canxi d3,bổ sung canxi,phòng còi xương,halife</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>CANXI VITA D3 - Giúp bổ sung canxi và vitamin D3 giúp phát triển hệ xương và tăng hấp thu khoáng chất</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>2024-01-18</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>GLUCO KC</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Thức ăn bổ sung</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Bù điện giải &amp; chống stress</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Bổ sung năng lượng, bù nước điện giải, chống stress cho vật nuôi</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Hỗ trợ phục hồi thể lực nhanh, bù nước, cân bằng điện giải, giảm sốc nhiệt, stress do vận chuyển, tiêm vaccine, thời tiết thay đổi.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Chống stress;Bù điện giải;Bổ sung năng lượng</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1g/1-2 lít nước, dùng trong 3-5 ngày</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>89000</v>
+      </c>
+      <c r="J25" t="n">
+        <v>89000</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Gói</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>1kg</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Gia súc, Gia cầm</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Glucose, KCl, NaCl, Vitamin C</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>1g/1-2 lít nước</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>0 ngày</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Khô ráo, mát</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>24 tháng</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Halife</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>VN-2024-GLUCOKC</t>
+        </is>
+      </c>
+      <c r="W25" t="b">
+        <v>1</v>
+      </c>
+      <c r="X25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>170</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>/images/product-3801e6cb-1752512951.png</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>/images/gluco-kc.png;/images/gallery-gluco-kc.png</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>gluco kc,bù điện giải,chống stress,năng lượng</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>gluco kc,bù nước,giảm sốc nhiệt,vaccine</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>GLUCO KC - Giúp vật nuôi chống stress, phục hồi nhanh và cân bằng điện giải hiệu quả</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>2024-01-18</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ADE TRỨNG</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Thức ăn bổ sung</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Tăng đẻ &amp; chất lượng trứng</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Tăng tỉ lệ đẻ, kéo dài thời gian khai thác, trứng đẹp, đỏ lòng</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Bổ sung Vitamin A, D3, E giúp tăng sản lượng trứng, cải thiện vỏ và lòng đỏ, duy trì thời gian đẻ bền vững, hạn chế cắn mổ.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Tăng đẻ;Trứng đỏ lòng;Giữ tỉ lệ đẻ cao lâu dài</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1g/1kg thức ăn hoặc 1g/1-2 lít nước liên tục 5-7 ngày/lần</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>109000</v>
+      </c>
+      <c r="J26" t="n">
+        <v>109000</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Gói</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>1kg</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Gia cầm</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Vitamin A, D3, E</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>1g/1kg thức ăn hoặc 1g/1-2 lít nước</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>0 ngày</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Khô ráo, tránh ẩm</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>24 tháng</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Halife</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>VN-2024-ADETRUNG</t>
+        </is>
+      </c>
+      <c r="W26" t="b">
+        <v>1</v>
+      </c>
+      <c r="X26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>/images/product-8c7036ed-1752512971.png</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>/images/ade-trung.png;/images/gallery-ade-trung.png</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>ade trứng,tăng đẻ,lòng đỏ,trứng đẹp,vitamin</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>ade trứng,tăng sản lượng,trứng đỏ lòng,halife</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>ADE TRỨNG - Tăng đẻ, duy trì năng suất cao, cải thiện chất lượng trứng rõ rệt</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>2024-02-17</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
         <is>
           <t>active</t>
         </is>

--- a/public/data/halife_products.xlsx
+++ b/public/data/halife_products.xlsx
@@ -770,7 +770,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">

--- a/public/data/halife_products.xlsx
+++ b/public/data/halife_products.xlsx
@@ -770,7 +770,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">

--- a/public/data/halife_products.xlsx
+++ b/public/data/halife_products.xlsx
@@ -623,7 +623,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BEST PHAGE</t>
+          <t>BEST PHAGE TEST 01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>/images/product-best-phage-1.png;/images/product-best-phage-2.png</t>
+          <t>/images/product-a9e9eeec-1753024799.png;/images/product-0680793c-1753024799.png</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">

--- a/public/data/halife_products.xlsx
+++ b/public/data/halife_products.xlsx
@@ -740,12 +740,12 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>/images/product-af2d0fd8-1752511729.png</t>
+          <t>/images/product-6fe759f3-1753194718.jpg</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>/images/product-a9e9eeec-1753024799.png;/images/product-0680793c-1753024799.png</t>
+          <t>/images/product-a9e9eeec-1753024799.png;/images/product-0680793c-1753024799.png;/images/product-6aa5133d-1753184918.png</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
